--- a/CapturaDis22Nueva2/Reportes/Preguntas y respuestas.xlsx
+++ b/CapturaDis22Nueva2/Reportes/Preguntas y respuestas.xlsx
@@ -326,14 +326,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -343,6 +337,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,7 +627,7 @@
   <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,159 +645,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="6" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="7" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7" t="s">
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
     </row>
     <row r="3" spans="1:40" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="3" t="s">
         <v>40</v>
       </c>
@@ -846,19 +846,19 @@
       <c r="AA3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -983,7 +983,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4">
+        <f t="shared" ref="K22" si="1">SUM(K4:K20)</f>
+        <v>0</v>
+      </c>
       <c r="L22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1057,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="AD22" s="4">
-        <f t="shared" ref="AD22:AG22" si="1">SUM(AD4:AD20)</f>
+        <f t="shared" ref="AD22:AG22" si="2">SUM(AD4:AD20)</f>
         <v>0</v>
       </c>
       <c r="AE22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH22" s="4">
@@ -1085,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="AK22">
-        <f t="shared" ref="AK22:AN22" si="2">SUM(AK4:AK20)</f>
+        <f t="shared" ref="AK22:AN22" si="3">SUM(AK4:AK20)</f>
         <v>0</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1106,156 +1109,159 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="e">
-        <f t="shared" ref="B23:G23" si="3">100/B22*B4</f>
+        <f t="shared" ref="B23:G23" si="4">100/B22*B4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C23" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D23" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="4" t="e">
-        <f t="shared" ref="H23:AJ23" si="4">100/H22*H4</f>
+        <f t="shared" ref="H23:AJ23" si="5">100/H22*H4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="4"/>
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="4" t="e">
+        <f t="shared" ref="K23" si="6">100/K22*K4</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD23" s="4" t="e">
-        <f t="shared" ref="AD23:AG23" si="5">100/AD22*AD4</f>
+        <f t="shared" ref="AD23:AG23" si="7">100/AD22*AD4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE23" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF23" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG23" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH23" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF23" s="4" t="e">
+      <c r="AI23" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG23" s="4" t="e">
+      <c r="AJ23" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH23" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI23" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ23" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AK23" s="4" t="e">
-        <f t="shared" ref="AK23:AN23" si="6">100/AK22*AK4</f>
+        <f t="shared" ref="AK23:AN23" si="8">100/AK22*AK4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL23" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM23" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN23" s="4" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1264,156 +1270,159 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="e">
-        <f t="shared" ref="B24:G24" si="7">100/B22*B5</f>
+        <f t="shared" ref="B24:G24" si="9">100/B22*B5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C24" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D24" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="4" t="e">
-        <f t="shared" ref="H24:AJ24" si="8">100/H22*H5</f>
+        <f t="shared" ref="H24:AJ24" si="10">100/H22*H5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="4"/>
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="4" t="e">
+        <f t="shared" ref="K24" si="11">100/K22*K5</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD24" s="4" t="e">
-        <f t="shared" ref="AD24:AG24" si="9">100/AD22*AD5</f>
+        <f t="shared" ref="AD24:AG24" si="12">100/AD22*AD5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE24" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF24" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG24" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ24" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK24" s="4" t="e">
-        <f t="shared" ref="AK24:AN24" si="10">100/AK22*AK5</f>
+        <f t="shared" ref="AK24:AN24" si="13">100/AK22*AK5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1422,156 +1431,159 @@
         <v>14</v>
       </c>
       <c r="B25" s="4" t="e">
-        <f t="shared" ref="B25:G25" si="11">100/B22*B6</f>
+        <f t="shared" ref="B25:G25" si="14">100/B22*B6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C25" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D25" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G25" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="4" t="e">
-        <f t="shared" ref="H25:AJ25" si="12">100/H22*H6</f>
+        <f t="shared" ref="H25:AJ25" si="15">100/H22*H6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="4" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="4"/>
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="4" t="e">
+        <f t="shared" ref="K25" si="16">100/K22*K6</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD25" s="4" t="e">
-        <f t="shared" ref="AD25:AG25" si="13">100/AD22*AD6</f>
+        <f t="shared" ref="AD25:AG25" si="17">100/AD22*AD6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE25" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF25" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG25" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ25" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK25" s="4" t="e">
-        <f t="shared" ref="AK25:AN25" si="14">100/AK22*AK6</f>
+        <f t="shared" ref="AK25:AN25" si="18">100/AK22*AK6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL25" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM25" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN25" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1580,156 +1592,159 @@
         <v>15</v>
       </c>
       <c r="B26" s="4" t="e">
-        <f t="shared" ref="B26:G26" si="15">100/B22*B7</f>
+        <f t="shared" ref="B26:G26" si="19">100/B22*B7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C26" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D26" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="4" t="e">
-        <f t="shared" ref="H26:AJ26" si="16">100/H22*H7</f>
+        <f t="shared" ref="H26:AJ26" si="20">100/H22*H7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="4" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="4"/>
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="4" t="e">
+        <f t="shared" ref="K26" si="21">100/K22*K7</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD26" s="4" t="e">
-        <f t="shared" ref="AD26:AG26" si="17">100/AD22*AD7</f>
+        <f t="shared" ref="AD26:AG26" si="22">100/AD22*AD7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE26" s="4" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF26" s="4" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG26" s="4" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ26" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK26" s="4" t="e">
-        <f t="shared" ref="AK26:AN26" si="18">100/AK22*AK7</f>
+        <f t="shared" ref="AK26:AN26" si="23">100/AK22*AK7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL26" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM26" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN26" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1738,156 +1753,159 @@
         <v>16</v>
       </c>
       <c r="B27" s="4" t="e">
-        <f t="shared" ref="B27:G27" si="19">100/B22*B8</f>
+        <f t="shared" ref="B27:G27" si="24">100/B22*B8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C27" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="4" t="e">
-        <f t="shared" ref="H27:AJ27" si="20">100/H22*H8</f>
+        <f t="shared" ref="H27:AJ27" si="25">100/H22*H8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="4" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="4"/>
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="4" t="e">
+        <f t="shared" ref="K27" si="26">100/K22*K8</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD27" s="4" t="e">
-        <f t="shared" ref="AD27:AG27" si="21">100/AD22*AD8</f>
+        <f t="shared" ref="AD27:AG27" si="27">100/AD22*AD8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE27" s="4" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF27" s="4" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG27" s="4" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ27" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK27" s="4" t="e">
-        <f t="shared" ref="AK27:AN27" si="22">100/AK22*AK8</f>
+        <f t="shared" ref="AK27:AN27" si="28">100/AK22*AK8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL27" s="4" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM27" s="4" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN27" s="4" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1908,132 +1926,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="4" t="e">
-        <f t="shared" ref="H28:AJ28" si="23">100/H22*H9</f>
+        <f t="shared" ref="H28:AJ28" si="29">100/H22*H9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="4" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="4"/>
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="4" t="e">
+        <f t="shared" ref="K28" si="30">100/K22*K9</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD28" s="4" t="e">
-        <f t="shared" ref="AD28:AG28" si="24">100/AD22*AD9</f>
+        <f t="shared" ref="AD28:AG28" si="31">100/AD22*AD9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE28" s="4" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF28" s="4" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG28" s="4" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ28" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK28" s="4" t="e">
-        <f t="shared" ref="AK28:AN28" si="25">100/AK22*AK9</f>
+        <f t="shared" ref="AK28:AN28" si="32">100/AK22*AK9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL28" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM28" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN28" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2051,132 +2072,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="4" t="e">
-        <f t="shared" ref="H29:AJ29" si="26">100/H22*H10</f>
+        <f t="shared" ref="H29:AJ29" si="33">100/H22*H10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J29" s="4" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="4"/>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="4" t="e">
+        <f t="shared" ref="K29" si="34">100/K22*K10</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD29" s="4" t="e">
-        <f t="shared" ref="AD29:AG29" si="27">100/AD22*AD10</f>
+        <f t="shared" ref="AD29:AG29" si="35">100/AD22*AD10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE29" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF29" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG29" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ29" s="4" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK29" s="4" t="e">
-        <f t="shared" ref="AK29:AN29" si="28">100/AK22*AK10</f>
+        <f t="shared" ref="AK29:AN29" si="36">100/AK22*AK10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL29" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM29" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN29" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2194,132 +2218,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="4" t="e">
-        <f t="shared" ref="H30:AJ30" si="29">100/H22*H11</f>
+        <f t="shared" ref="H30:AJ30" si="37">100/H22*H11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J30" s="4" t="e">
-        <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="4"/>
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="4" t="e">
+        <f t="shared" ref="K30" si="38">100/K22*K11</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD30" s="4" t="e">
-        <f t="shared" ref="AD30:AG30" si="30">100/AD22*AD11</f>
+        <f t="shared" ref="AD30:AG30" si="39">100/AD22*AD11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE30" s="4" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF30" s="4" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG30" s="4" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK30" s="4" t="e">
-        <f t="shared" ref="AK30:AN30" si="31">100/AK22*AK11</f>
+        <f t="shared" ref="AK30:AN30" si="40">100/AK22*AK11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL30" s="4" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM30" s="4" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN30" s="4" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2337,132 +2364,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="4" t="e">
-        <f t="shared" ref="H31:AJ31" si="32">100/H22*H12</f>
+        <f t="shared" ref="H31:AJ31" si="41">100/H22*H12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="4" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="4"/>
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="4" t="e">
+        <f t="shared" ref="K31" si="42">100/K22*K12</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD31" s="4" t="e">
-        <f t="shared" ref="AD31:AG31" si="33">100/AD22*AD12</f>
+        <f t="shared" ref="AD31:AG31" si="43">100/AD22*AD12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE31" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF31" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG31" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ31" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK31" s="4" t="e">
-        <f t="shared" ref="AK31:AN31" si="34">100/AK22*AK12</f>
+        <f t="shared" ref="AK31:AN31" si="44">100/AK22*AK12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL31" s="4" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM31" s="4" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN31" s="4" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2480,132 +2510,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="4" t="e">
-        <f t="shared" ref="H32:AJ32" si="35">100/H22*H13</f>
+        <f t="shared" ref="H32:AJ32" si="45">100/H22*H13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J32" s="4" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="4"/>
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="4" t="e">
+        <f t="shared" ref="K32" si="46">100/K22*K13</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD32" s="4" t="e">
-        <f t="shared" ref="AD32:AG32" si="36">100/AD22*AD13</f>
+        <f t="shared" ref="AD32:AG32" si="47">100/AD22*AD13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE32" s="4" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF32" s="4" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG32" s="4" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ32" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK32" s="4" t="e">
-        <f t="shared" ref="AK32:AN32" si="37">100/AK22*AK13</f>
+        <f t="shared" ref="AK32:AN32" si="48">100/AK22*AK13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL32" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM32" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN32" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2623,132 +2656,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="4" t="e">
-        <f t="shared" ref="H33:AJ33" si="38">100/H22*H14</f>
+        <f t="shared" ref="H33:AJ33" si="49">100/H22*H14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J33" s="4" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="4"/>
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="4" t="e">
+        <f t="shared" ref="K33" si="50">100/K22*K14</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD33" s="4" t="e">
-        <f t="shared" ref="AD33:AG33" si="39">100/AD22*AD14</f>
+        <f t="shared" ref="AD33:AG33" si="51">100/AD22*AD14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE33" s="4" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF33" s="4" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG33" s="4" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ33" s="4" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK33" s="4" t="e">
-        <f t="shared" ref="AK33:AN33" si="40">100/AK22*AK14</f>
+        <f t="shared" ref="AK33:AN33" si="52">100/AK22*AK14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL33" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM33" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN33" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2766,132 +2802,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="4" t="e">
-        <f t="shared" ref="H34:AJ34" si="41">100/H22*H15</f>
+        <f t="shared" ref="H34:AJ34" si="53">100/H22*H15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J34" s="4" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="4"/>
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="4" t="e">
+        <f t="shared" ref="K34" si="54">100/K22*K15</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD34" s="4" t="e">
-        <f t="shared" ref="AD34:AG34" si="42">100/AD22*AD15</f>
+        <f t="shared" ref="AD34:AG34" si="55">100/AD22*AD15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE34" s="4" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF34" s="4" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG34" s="4" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ34" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK34" s="4" t="e">
-        <f t="shared" ref="AK34:AN34" si="43">100/AK22*AK15</f>
+        <f t="shared" ref="AK34:AN34" si="56">100/AK22*AK15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL34" s="4" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM34" s="4" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN34" s="4" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2909,132 +2948,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="4" t="e">
-        <f t="shared" ref="H35:AJ35" si="44">100/H22*H16</f>
+        <f t="shared" ref="H35:AJ35" si="57">100/H22*H16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J35" s="4" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="4"/>
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="4" t="e">
+        <f t="shared" ref="K35" si="58">100/K22*K16</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD35" s="4" t="e">
-        <f t="shared" ref="AD35:AG35" si="45">100/AD22*AD16</f>
+        <f t="shared" ref="AD35:AG35" si="59">100/AD22*AD16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE35" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF35" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG35" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ35" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK35" s="4" t="e">
-        <f t="shared" ref="AK35:AN35" si="46">100/AK22*AK16</f>
+        <f t="shared" ref="AK35:AN35" si="60">100/AK22*AK16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL35" s="4" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM35" s="4" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN35" s="4" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3052,132 +3094,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="4" t="e">
-        <f t="shared" ref="H36:AJ36" si="47">100/H22*H17</f>
+        <f t="shared" ref="H36:AJ36" si="61">100/H22*H17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="4" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="4"/>
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="4" t="e">
+        <f t="shared" ref="K36" si="62">100/K22*K17</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD36" s="4" t="e">
-        <f t="shared" ref="AD36:AG36" si="48">100/AD22*AD17</f>
+        <f t="shared" ref="AD36:AG36" si="63">100/AD22*AD17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE36" s="4" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF36" s="4" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG36" s="4" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ36" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK36" s="4" t="e">
-        <f t="shared" ref="AK36:AN36" si="49">100/AK22*AK17</f>
+        <f t="shared" ref="AK36:AN36" si="64">100/AK22*AK17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL36" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM36" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN36" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3195,132 +3240,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="4" t="e">
-        <f t="shared" ref="H37:AJ37" si="50">100/H22*H18</f>
+        <f t="shared" ref="H37:AJ37" si="65">100/H22*H18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J37" s="4" t="e">
-        <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="4"/>
+        <f t="shared" si="65"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="4" t="e">
+        <f t="shared" ref="K37" si="66">100/K22*K18</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD37" s="4" t="e">
-        <f t="shared" ref="AD37:AG37" si="51">100/AD22*AD18</f>
+        <f t="shared" ref="AD37:AG37" si="67">100/AD22*AD18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE37" s="4" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF37" s="4" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG37" s="4" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ37" s="4" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK37" s="4" t="e">
-        <f t="shared" ref="AK37:AN37" si="52">100/AK22*AK18</f>
+        <f t="shared" ref="AK37:AN37" si="68">100/AK22*AK18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL37" s="4" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM37" s="4" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN37" s="4" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3338,132 +3386,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="4" t="e">
-        <f t="shared" ref="H38:AJ38" si="53">100/H22*H19</f>
+        <f t="shared" ref="H38:AJ38" si="69">100/H22*H19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J38" s="4" t="e">
-        <f t="shared" si="53"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="4"/>
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="4" t="e">
+        <f t="shared" ref="K38" si="70">100/K22*K19</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD38" s="4" t="e">
-        <f t="shared" ref="AD38:AG38" si="54">100/AD22*AD19</f>
+        <f t="shared" ref="AD38:AG38" si="71">100/AD22*AD19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE38" s="4" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF38" s="4" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG38" s="4" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ38" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK38" s="4" t="e">
-        <f t="shared" ref="AK38:AN38" si="55">100/AK22*AK19</f>
+        <f t="shared" ref="AK38:AN38" si="72">100/AK22*AK19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL38" s="4" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM38" s="4" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN38" s="4" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3481,132 +3532,135 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="4" t="e">
-        <f t="shared" ref="H39:AJ39" si="56">100/H22*H20</f>
+        <f t="shared" ref="H39:AJ39" si="73">100/H22*H20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J39" s="4" t="e">
-        <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="4"/>
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="4" t="e">
+        <f t="shared" ref="K39" si="74">100/K22*K20</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD39" s="4" t="e">
-        <f t="shared" ref="AD39:AG39" si="57">100/AD22*AD20</f>
+        <f t="shared" ref="AD39:AG39" si="75">100/AD22*AD20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE39" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF39" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG39" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ39" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK39" s="4" t="e">
-        <f t="shared" ref="AK39:AN39" si="58">100/AK22*AK20</f>
+        <f t="shared" ref="AK39:AN39" si="76">100/AK22*AK20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL39" s="4" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM39" s="4" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN39" s="4" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3659,168 +3713,165 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C41" s="4" t="e">
-        <f t="shared" ref="C41:AJ41" si="59">SUM(C23:C39)</f>
+        <f t="shared" ref="C41:AJ41" si="77">SUM(C23:C39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J41" s="4" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="4"/>
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="4" t="e">
+        <f t="shared" ref="K41" si="78">SUM(K23:K39)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD41" s="4" t="e">
-        <f t="shared" ref="AD41:AG41" si="60">SUM(AD23:AD39)</f>
+        <f t="shared" ref="AD41:AG41" si="79">SUM(AD23:AD39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE41" s="4" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF41" s="4" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG41" s="4" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ41" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK41" s="4" t="e">
-        <f t="shared" ref="AK41:AN41" si="61">SUM(AK23:AK39)</f>
+        <f t="shared" ref="AK41:AN41" si="80">SUM(AK23:AK39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL41" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM41" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN41" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="L1:AA1"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="AH1:AH3"/>
@@ -3834,11 +3885,17 @@
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CapturaDis22Nueva2/Reportes/Preguntas y respuestas.xlsx
+++ b/CapturaDis22Nueva2/Reportes/Preguntas y respuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>1.- ¿Comparada con el año pasado, ¿cómo diría que está actualmente su situación económica personal?</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>19.- Por último, ¿Usted prefiere a alguien con militancia partidista o a un ciudadano?</t>
+  </si>
+  <si>
+    <t>bis 11 - 20.- .- Si el día de hoy fueran las elecciones para SENADOR, ¿Por cuál de éstas opciones votaría?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bis 12 - 21.- .- Si el día de hoy fueran las elecciones para DIPUTADO FEDERAL, ¿Por cuál de éstas opciones votaría? </t>
   </si>
 </sst>
 </file>
@@ -326,8 +332,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -337,12 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN41"/>
+  <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1:AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,162 +648,172 @@
     <col min="38" max="38" width="26.28515625" customWidth="1"/>
     <col min="39" max="39" width="24.42578125" customWidth="1"/>
     <col min="40" max="40" width="20.7109375" customWidth="1"/>
+    <col min="41" max="41" width="18.140625" customWidth="1"/>
+    <col min="42" max="42" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:42" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="5" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="AO1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="9" t="s">
+    <row r="2" spans="1:42" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
     </row>
-    <row r="3" spans="1:40" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="8"/>
+    <row r="3" spans="1:42" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="3" t="s">
         <v>40</v>
       </c>
@@ -846,106 +862,108 @@
       <c r="AA3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4">
         <f t="shared" ref="B22:AJ22" si="0">SUM(B4:B20)</f>
@@ -1103,813 +1121,861 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AO22">
+        <f t="shared" ref="AO22:AP22" si="4">SUM(AO4:AO20)</f>
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="4" t="e">
-        <f t="shared" ref="B23:G23" si="4">100/B22*B4</f>
+        <f t="shared" ref="B23:G23" si="5">100/B22*B4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="4" t="e">
-        <f t="shared" ref="H23:AJ23" si="5">100/H22*H4</f>
+        <f t="shared" ref="H23:AJ23" si="6">100/H22*H4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="4" t="e">
-        <f t="shared" ref="K23" si="6">100/K22*K4</f>
+        <f t="shared" ref="K23" si="7">100/K22*K4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD23" s="4" t="e">
-        <f t="shared" ref="AD23:AG23" si="7">100/AD22*AD4</f>
+        <f t="shared" ref="AD23:AG23" si="8">100/AD22*AD4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE23" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF23" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG23" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK23" s="4" t="e">
-        <f t="shared" ref="AK23:AN23" si="8">100/AK22*AK4</f>
+        <f t="shared" ref="AK23:AN23" si="9">100/AK22*AK4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL23" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM23" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN23" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO23" s="4" t="e">
+        <f t="shared" ref="AO23:AP23" si="10">100/AO22*AO4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP23" s="4" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="e">
-        <f t="shared" ref="B24:G24" si="9">100/B22*B5</f>
+        <f t="shared" ref="B24:G24" si="11">100/B22*B5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C24" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D24" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="4" t="e">
-        <f t="shared" ref="H24:AJ24" si="10">100/H22*H5</f>
+        <f t="shared" ref="H24:AJ24" si="12">100/H22*H5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="4" t="e">
-        <f t="shared" ref="K24" si="11">100/K22*K5</f>
+        <f t="shared" ref="K24" si="13">100/K22*K5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC24" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD24" s="4" t="e">
-        <f t="shared" ref="AD24:AG24" si="12">100/AD22*AD5</f>
+        <f t="shared" ref="AD24:AG24" si="14">100/AD22*AD5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH24" s="4" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF24" s="4" t="e">
+      <c r="AI24" s="4" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG24" s="4" t="e">
+      <c r="AJ24" s="4" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH24" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI24" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ24" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AK24" s="4" t="e">
-        <f t="shared" ref="AK24:AN24" si="13">100/AK22*AK5</f>
+        <f t="shared" ref="AK24:AN24" si="15">100/AK22*AK5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL24" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM24" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN24" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO24" s="4" t="e">
+        <f t="shared" ref="AO24:AP24" si="16">100/AO22*AO5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP24" s="4" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="4" t="e">
-        <f t="shared" ref="B25:G25" si="14">100/B22*B6</f>
+        <f t="shared" ref="B25:G25" si="17">100/B22*B6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C25" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D25" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G25" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="4" t="e">
-        <f t="shared" ref="H25:AJ25" si="15">100/H22*H6</f>
+        <f t="shared" ref="H25:AJ25" si="18">100/H22*H6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="4" t="e">
-        <f t="shared" ref="K25" si="16">100/K22*K6</f>
+        <f t="shared" ref="K25" si="19">100/K22*K6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD25" s="4" t="e">
-        <f t="shared" ref="AD25:AG25" si="17">100/AD22*AD6</f>
+        <f t="shared" ref="AD25:AG25" si="20">100/AD22*AD6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE25" s="4" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF25" s="4" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG25" s="4" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ25" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK25" s="4" t="e">
-        <f t="shared" ref="AK25:AN25" si="18">100/AK22*AK6</f>
+        <f t="shared" ref="AK25:AN25" si="21">100/AK22*AK6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL25" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM25" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN25" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO25" s="4" t="e">
+        <f t="shared" ref="AO25:AP25" si="22">100/AO22*AO6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP25" s="4" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="4" t="e">
-        <f t="shared" ref="B26:G26" si="19">100/B22*B7</f>
+        <f t="shared" ref="B26:G26" si="23">100/B22*B7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C26" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D26" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="4" t="e">
-        <f t="shared" ref="H26:AJ26" si="20">100/H22*H7</f>
+        <f t="shared" ref="H26:AJ26" si="24">100/H22*H7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="4" t="e">
-        <f t="shared" ref="K26" si="21">100/K22*K7</f>
+        <f t="shared" ref="K26" si="25">100/K22*K7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD26" s="4" t="e">
-        <f t="shared" ref="AD26:AG26" si="22">100/AD22*AD7</f>
+        <f t="shared" ref="AD26:AG26" si="26">100/AD22*AD7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE26" s="4" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF26" s="4" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG26" s="4" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ26" s="4" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK26" s="4" t="e">
-        <f t="shared" ref="AK26:AN26" si="23">100/AK22*AK7</f>
+        <f t="shared" ref="AK26:AN26" si="27">100/AK22*AK7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL26" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM26" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN26" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO26" s="4" t="e">
+        <f t="shared" ref="AO26:AP26" si="28">100/AO22*AO7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP26" s="4" t="e">
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="4" t="e">
-        <f t="shared" ref="B27:G27" si="24">100/B22*B8</f>
+        <f t="shared" ref="B27:G27" si="29">100/B22*B8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C27" s="4" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="4" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="4" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="4" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="4" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="4" t="e">
-        <f t="shared" ref="H27:AJ27" si="25">100/H22*H8</f>
+        <f t="shared" ref="H27:AJ27" si="30">100/H22*H8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="4" t="e">
-        <f t="shared" ref="K27" si="26">100/K22*K8</f>
+        <f t="shared" ref="K27" si="31">100/K22*K8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD27" s="4" t="e">
-        <f t="shared" ref="AD27:AG27" si="27">100/AD22*AD8</f>
+        <f t="shared" ref="AD27:AG27" si="32">100/AD22*AD8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE27" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF27" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG27" s="4" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ27" s="4" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK27" s="4" t="e">
-        <f t="shared" ref="AK27:AN27" si="28">100/AK22*AK8</f>
+        <f t="shared" ref="AK27:AN27" si="33">100/AK22*AK8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL27" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM27" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN27" s="4" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO27" s="4" t="e">
+        <f t="shared" ref="AO27:AP27" si="34">100/AO22*AO8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP27" s="4" t="e">
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -1926,139 +1992,147 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="4" t="e">
-        <f t="shared" ref="H28:AJ28" si="29">100/H22*H9</f>
+        <f t="shared" ref="H28:AJ28" si="35">100/H22*H9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="4" t="e">
-        <f t="shared" ref="K28" si="30">100/K22*K9</f>
+        <f t="shared" ref="K28" si="36">100/K22*K9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD28" s="4" t="e">
-        <f t="shared" ref="AD28:AG28" si="31">100/AD22*AD9</f>
+        <f t="shared" ref="AD28:AG28" si="37">100/AD22*AD9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE28" s="4" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF28" s="4" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG28" s="4" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK28" s="4" t="e">
-        <f t="shared" ref="AK28:AN28" si="32">100/AK22*AK9</f>
+        <f t="shared" ref="AK28:AN28" si="38">100/AK22*AK9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL28" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM28" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN28" s="4" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO28" s="4" t="e">
+        <f t="shared" ref="AO28:AP28" si="39">100/AO22*AO9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP28" s="4" t="e">
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
@@ -2072,139 +2146,147 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="4" t="e">
-        <f t="shared" ref="H29:AJ29" si="33">100/H22*H10</f>
+        <f t="shared" ref="H29:AJ29" si="40">100/H22*H10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="4" t="e">
-        <f t="shared" ref="K29" si="34">100/K22*K10</f>
+        <f t="shared" ref="K29" si="41">100/K22*K10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD29" s="4" t="e">
-        <f t="shared" ref="AD29:AG29" si="35">100/AD22*AD10</f>
+        <f t="shared" ref="AD29:AG29" si="42">100/AD22*AD10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE29" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF29" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG29" s="4" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ29" s="4" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK29" s="4" t="e">
-        <f t="shared" ref="AK29:AN29" si="36">100/AK22*AK10</f>
+        <f t="shared" ref="AK29:AN29" si="43">100/AK22*AK10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL29" s="4" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM29" s="4" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN29" s="4" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO29" s="4" t="e">
+        <f t="shared" ref="AO29:AP29" si="44">100/AO22*AO10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP29" s="4" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>19</v>
       </c>
@@ -2218,139 +2300,147 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="4" t="e">
-        <f t="shared" ref="H30:AJ30" si="37">100/H22*H11</f>
+        <f t="shared" ref="H30:AJ30" si="45">100/H22*H11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="4" t="e">
-        <f t="shared" ref="K30" si="38">100/K22*K11</f>
+        <f t="shared" ref="K30" si="46">100/K22*K11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD30" s="4" t="e">
-        <f t="shared" ref="AD30:AG30" si="39">100/AD22*AD11</f>
+        <f t="shared" ref="AD30:AG30" si="47">100/AD22*AD11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE30" s="4" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF30" s="4" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG30" s="4" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ30" s="4" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK30" s="4" t="e">
-        <f t="shared" ref="AK30:AN30" si="40">100/AK22*AK11</f>
+        <f t="shared" ref="AK30:AN30" si="48">100/AK22*AK11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL30" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM30" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN30" s="4" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO30" s="4" t="e">
+        <f t="shared" ref="AO30:AP30" si="49">100/AO22*AO11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP30" s="4" t="e">
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -2364,139 +2454,147 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="4" t="e">
-        <f t="shared" ref="H31:AJ31" si="41">100/H22*H12</f>
+        <f t="shared" ref="H31:AJ31" si="50">100/H22*H12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="4" t="e">
-        <f t="shared" ref="K31" si="42">100/K22*K12</f>
+        <f t="shared" ref="K31" si="51">100/K22*K12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD31" s="4" t="e">
-        <f t="shared" ref="AD31:AG31" si="43">100/AD22*AD12</f>
+        <f t="shared" ref="AD31:AG31" si="52">100/AD22*AD12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE31" s="4" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF31" s="4" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG31" s="4" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ31" s="4" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK31" s="4" t="e">
-        <f t="shared" ref="AK31:AN31" si="44">100/AK22*AK12</f>
+        <f t="shared" ref="AK31:AN31" si="53">100/AK22*AK12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL31" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM31" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN31" s="4" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO31" s="4" t="e">
+        <f t="shared" ref="AO31:AP31" si="54">100/AO22*AO12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP31" s="4" t="e">
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
@@ -2510,139 +2608,147 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="4" t="e">
-        <f t="shared" ref="H32:AJ32" si="45">100/H22*H13</f>
+        <f t="shared" ref="H32:AJ32" si="55">100/H22*H13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="4" t="e">
-        <f t="shared" ref="K32" si="46">100/K22*K13</f>
+        <f t="shared" ref="K32" si="56">100/K22*K13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD32" s="4" t="e">
-        <f t="shared" ref="AD32:AG32" si="47">100/AD22*AD13</f>
+        <f t="shared" ref="AD32:AG32" si="57">100/AD22*AD13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE32" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF32" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG32" s="4" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ32" s="4" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK32" s="4" t="e">
-        <f t="shared" ref="AK32:AN32" si="48">100/AK22*AK13</f>
+        <f t="shared" ref="AK32:AN32" si="58">100/AK22*AK13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL32" s="4" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM32" s="4" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN32" s="4" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO32" s="4" t="e">
+        <f t="shared" ref="AO32:AP32" si="59">100/AO22*AO13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP32" s="4" t="e">
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
@@ -2656,139 +2762,147 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="4" t="e">
-        <f t="shared" ref="H33:AJ33" si="49">100/H22*H14</f>
+        <f t="shared" ref="H33:AJ33" si="60">100/H22*H14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="4" t="e">
-        <f t="shared" ref="K33" si="50">100/K22*K14</f>
+        <f t="shared" ref="K33" si="61">100/K22*K14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD33" s="4" t="e">
-        <f t="shared" ref="AD33:AG33" si="51">100/AD22*AD14</f>
+        <f t="shared" ref="AD33:AG33" si="62">100/AD22*AD14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE33" s="4" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF33" s="4" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG33" s="4" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ33" s="4" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK33" s="4" t="e">
-        <f t="shared" ref="AK33:AN33" si="52">100/AK22*AK14</f>
+        <f t="shared" ref="AK33:AN33" si="63">100/AK22*AK14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL33" s="4" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM33" s="4" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN33" s="4" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO33" s="4" t="e">
+        <f t="shared" ref="AO33:AP33" si="64">100/AO22*AO14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP33" s="4" t="e">
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
@@ -2802,139 +2916,147 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="4" t="e">
-        <f t="shared" ref="H34:AJ34" si="53">100/H22*H15</f>
+        <f t="shared" ref="H34:AJ34" si="65">100/H22*H15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="4" t="e">
-        <f t="shared" ref="K34" si="54">100/K22*K15</f>
+        <f t="shared" ref="K34" si="66">100/K22*K15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD34" s="4" t="e">
-        <f t="shared" ref="AD34:AG34" si="55">100/AD22*AD15</f>
+        <f t="shared" ref="AD34:AG34" si="67">100/AD22*AD15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE34" s="4" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF34" s="4" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG34" s="4" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ34" s="4" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK34" s="4" t="e">
-        <f t="shared" ref="AK34:AN34" si="56">100/AK22*AK15</f>
+        <f t="shared" ref="AK34:AN34" si="68">100/AK22*AK15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL34" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM34" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN34" s="4" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO34" s="4" t="e">
+        <f t="shared" ref="AO34:AP34" si="69">100/AO22*AO15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP34" s="4" t="e">
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
@@ -2948,139 +3070,147 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="4" t="e">
-        <f t="shared" ref="H35:AJ35" si="57">100/H22*H16</f>
+        <f t="shared" ref="H35:AJ35" si="70">100/H22*H16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="4" t="e">
-        <f t="shared" ref="K35" si="58">100/K22*K16</f>
+        <f t="shared" ref="K35" si="71">100/K22*K16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD35" s="4" t="e">
-        <f t="shared" ref="AD35:AG35" si="59">100/AD22*AD16</f>
+        <f t="shared" ref="AD35:AG35" si="72">100/AD22*AD16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE35" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF35" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG35" s="4" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ35" s="4" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK35" s="4" t="e">
-        <f t="shared" ref="AK35:AN35" si="60">100/AK22*AK16</f>
+        <f t="shared" ref="AK35:AN35" si="73">100/AK22*AK16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL35" s="4" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM35" s="4" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN35" s="4" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO35" s="4" t="e">
+        <f t="shared" ref="AO35:AP35" si="74">100/AO22*AO16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP35" s="4" t="e">
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
@@ -3094,139 +3224,147 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="4" t="e">
-        <f t="shared" ref="H36:AJ36" si="61">100/H22*H17</f>
+        <f t="shared" ref="H36:AJ36" si="75">100/H22*H17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="4" t="e">
-        <f t="shared" ref="K36" si="62">100/K22*K17</f>
+        <f t="shared" ref="K36" si="76">100/K22*K17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD36" s="4" t="e">
-        <f t="shared" ref="AD36:AG36" si="63">100/AD22*AD17</f>
+        <f t="shared" ref="AD36:AG36" si="77">100/AD22*AD17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE36" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF36" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG36" s="4" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ36" s="4" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK36" s="4" t="e">
-        <f t="shared" ref="AK36:AN36" si="64">100/AK22*AK17</f>
+        <f t="shared" ref="AK36:AN36" si="78">100/AK22*AK17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL36" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM36" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN36" s="4" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO36" s="4" t="e">
+        <f t="shared" ref="AO36:AP36" si="79">100/AO22*AO17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP36" s="4" t="e">
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>26</v>
       </c>
@@ -3240,139 +3378,147 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="4" t="e">
-        <f t="shared" ref="H37:AJ37" si="65">100/H22*H18</f>
+        <f t="shared" ref="H37:AJ37" si="80">100/H22*H18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="4" t="e">
-        <f t="shared" ref="K37" si="66">100/K22*K18</f>
+        <f t="shared" ref="K37" si="81">100/K22*K18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD37" s="4" t="e">
-        <f t="shared" ref="AD37:AG37" si="67">100/AD22*AD18</f>
+        <f t="shared" ref="AD37:AG37" si="82">100/AD22*AD18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE37" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF37" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG37" s="4" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ37" s="4" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK37" s="4" t="e">
-        <f t="shared" ref="AK37:AN37" si="68">100/AK22*AK18</f>
+        <f t="shared" ref="AK37:AN37" si="83">100/AK22*AK18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL37" s="4" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM37" s="4" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN37" s="4" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO37" s="4" t="e">
+        <f t="shared" ref="AO37:AP37" si="84">100/AO22*AO18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP37" s="4" t="e">
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>27</v>
       </c>
@@ -3386,139 +3532,147 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="4" t="e">
-        <f t="shared" ref="H38:AJ38" si="69">100/H22*H19</f>
+        <f t="shared" ref="H38:AJ38" si="85">100/H22*H19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="4" t="e">
-        <f t="shared" ref="K38" si="70">100/K22*K19</f>
+        <f t="shared" ref="K38" si="86">100/K22*K19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD38" s="4" t="e">
-        <f t="shared" ref="AD38:AG38" si="71">100/AD22*AD19</f>
+        <f t="shared" ref="AD38:AG38" si="87">100/AD22*AD19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE38" s="4" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF38" s="4" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG38" s="4" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ38" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK38" s="4" t="e">
-        <f t="shared" ref="AK38:AN38" si="72">100/AK22*AK19</f>
+        <f t="shared" ref="AK38:AN38" si="88">100/AK22*AK19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL38" s="4" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM38" s="4" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN38" s="4" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO38" s="4" t="e">
+        <f t="shared" ref="AO38:AP38" si="89">100/AO22*AO19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP38" s="4" t="e">
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>28</v>
       </c>
@@ -3532,139 +3686,147 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="4" t="e">
-        <f t="shared" ref="H39:AJ39" si="73">100/H22*H20</f>
+        <f t="shared" ref="H39:AJ39" si="90">100/H22*H20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="4" t="e">
-        <f t="shared" ref="K39" si="74">100/K22*K20</f>
+        <f t="shared" ref="K39" si="91">100/K22*K20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD39" s="4" t="e">
-        <f t="shared" ref="AD39:AG39" si="75">100/AD22*AD20</f>
+        <f t="shared" ref="AD39:AG39" si="92">100/AD22*AD20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE39" s="4" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF39" s="4" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG39" s="4" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ39" s="4" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="90"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK39" s="4" t="e">
-        <f t="shared" ref="AK39:AN39" si="76">100/AK22*AK20</f>
+        <f t="shared" ref="AK39:AN39" si="93">100/AK22*AK20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL39" s="4" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="93"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM39" s="4" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="93"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN39" s="4" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO39" s="4" t="e">
+        <f t="shared" ref="AO39:AP39" si="94">100/AO22*AO20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP39" s="4" t="e">
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3705,173 +3867,191 @@
       <c r="AL40" s="4"/>
       <c r="AM40" s="4"/>
       <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="e">
         <f>SUM(B23:B39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C41" s="4" t="e">
-        <f t="shared" ref="C41:AJ41" si="77">SUM(C23:C39)</f>
+        <f t="shared" ref="C41:AJ41" si="95">SUM(C23:C39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K41" s="4" t="e">
-        <f t="shared" ref="K41" si="78">SUM(K23:K39)</f>
+        <f t="shared" ref="K41" si="96">SUM(K23:K39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD41" s="4" t="e">
-        <f t="shared" ref="AD41:AG41" si="79">SUM(AD23:AD39)</f>
+        <f t="shared" ref="AD41:AG41" si="97">SUM(AD23:AD39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE41" s="4" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF41" s="4" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG41" s="4" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="97"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ41" s="4" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK41" s="4" t="e">
-        <f t="shared" ref="AK41:AN41" si="80">SUM(AK23:AK39)</f>
+        <f t="shared" ref="AK41:AN41" si="98">SUM(AK23:AK39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL41" s="4" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM41" s="4" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN41" s="4" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO41" s="4" t="e">
+        <f t="shared" ref="AO41:AP41" si="99">SUM(AO23:AO39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP41" s="4" t="e">
+        <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+  <mergeCells count="31">
+    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
     <mergeCell ref="L1:AA1"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="AH1:AH3"/>
@@ -3885,17 +4065,11 @@
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CapturaDis22Nueva2/Reportes/Preguntas y respuestas.xlsx
+++ b/CapturaDis22Nueva2/Reportes/Preguntas y respuestas.xlsx
@@ -332,14 +332,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -349,6 +343,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1:AP3"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,8 +642,8 @@
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="28" max="28" width="30.28515625" customWidth="1"/>
     <col min="29" max="34" width="21.28515625" customWidth="1"/>
-    <col min="35" max="35" width="13.42578125" customWidth="1"/>
-    <col min="36" max="36" width="17.42578125" customWidth="1"/>
+    <col min="35" max="35" width="23.42578125" customWidth="1"/>
+    <col min="36" max="36" width="21.85546875" customWidth="1"/>
     <col min="37" max="37" width="19.42578125" customWidth="1"/>
     <col min="38" max="38" width="26.28515625" customWidth="1"/>
     <col min="39" max="39" width="24.42578125" customWidth="1"/>
@@ -653,167 +653,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="6" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="7" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7" t="s">
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="3" t="s">
         <v>40</v>
       </c>
@@ -862,28 +862,28 @@
       <c r="AA3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4039,6 +4039,24 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="L1:AA1"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="K1:K3"/>
     <mergeCell ref="AO1:AO3"/>
     <mergeCell ref="AP1:AP3"/>
     <mergeCell ref="AN1:AN3"/>
@@ -4052,24 +4070,6 @@
     <mergeCell ref="AE1:AE3"/>
     <mergeCell ref="AF1:AF3"/>
     <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="L1:AA1"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
